--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1170,22 +1170,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
@@ -513,16 +513,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1158,34 +1158,34 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
@@ -513,16 +513,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>

--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1170,22 +1170,22 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
+++ b/Prestador/prontobaby/resultado/relatorio_prontobaby_COMPLETO.xlsx
@@ -510,19 +510,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
